--- a/Protein_Repression_Matching/outputs/Protein Parameters.xlsx
+++ b/Protein_Repression_Matching/outputs/Protein Parameters.xlsx
@@ -606,22 +606,22 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>100.6386639287033</v>
+        <v>100.6377014185391</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.597152294178509</v>
+        <v>3.597695585790739</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.040433850274842</v>
+        <v>1.040370969520692</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.002115698711882951</v>
+        <v>0.002115567798396756</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.04294737612444425</v>
+        <v>0.04294894149771089</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.9995573889236102</v>
+        <v>0.9995573894214183</v>
       </c>
     </row>
     <row r="4">
